--- a/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-923-3-Jezerc-Nuredini.xlsx
+++ b/cd/1.1-Te-dhenat-kadastrale-zyrtare-ne-forme-digjitale-923-3-Jezerc-Nuredini.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$M$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>Nr</t>
   </si>
@@ -78,37 +78,85 @@
     <t>Koha e matjes</t>
   </si>
   <si>
+    <t>Kualiteti</t>
+  </si>
+  <si>
+    <t>Siperfaqja</t>
+  </si>
+  <si>
+    <t>Pikat zyrtare</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>Measured</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A755968</t>
+  </si>
+  <si>
+    <t>A755969</t>
+  </si>
+  <si>
+    <t>A755970</t>
+  </si>
+  <si>
+    <t>A755971</t>
+  </si>
+  <si>
+    <t>A755972</t>
+  </si>
+  <si>
+    <t>A755973</t>
+  </si>
+  <si>
+    <t>A756626</t>
+  </si>
+  <si>
+    <t>A756627</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>RTCM-Ref 1850</t>
+  </si>
+  <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Kualiteti</t>
-  </si>
-  <si>
-    <t>A752932</t>
-  </si>
-  <si>
-    <t>RTCM-Ref 1600</t>
-  </si>
-  <si>
-    <t>RTCM-Ref 1601</t>
-  </si>
-  <si>
-    <t>3547-27</t>
-  </si>
-  <si>
-    <t>3547-28</t>
-  </si>
-  <si>
-    <t>Siperfaqja</t>
-  </si>
-  <si>
-    <t>Pikat zyrtare 3547-13 Jezerc</t>
+    <t>RTCM-Ref 1852</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>RTCM-Ref 1853</t>
+  </si>
+  <si>
+    <t>923-5</t>
+  </si>
+  <si>
+    <t>923-6</t>
+  </si>
+  <si>
+    <t>923-7</t>
   </si>
 </sst>
 </file>
@@ -118,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +307,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -572,30 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -653,7 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,9 +692,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,6 +704,27 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,50 +734,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1043,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,186 +1082,187 @@
   <dimension ref="B2:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="14" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="3.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="8" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="P2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="S2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1155</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="3">
+        <v>755972</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7498621.483</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4692889.7960000001</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1031</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="I4" s="21">
+        <v>43879.541030092594</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7498578.301</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4692842.7539999997</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="4">
-        <v>752270</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7498853.7429999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4690602.6310000001</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="16">
-        <v>43813.608148148145</v>
-      </c>
-      <c r="J4" s="4">
-        <v>7498778.6094000004</v>
-      </c>
-      <c r="K4" s="4">
-        <v>4690735.9737999998</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1223.4638</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5000</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="S4" s="15">
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <v>7498778.608</v>
+        <v>7498578.301</v>
       </c>
       <c r="U4" s="3">
-        <v>4690735.9890000001</v>
+        <v>4692842.7539999997</v>
       </c>
       <c r="V4" s="3">
-        <v>1223.4638</v>
+        <v>1264.7361000000001</v>
       </c>
       <c r="W4" s="1">
         <v>2</v>
@@ -1246,630 +1272,842 @@
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="4">
-        <v>752838</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7498745.8770000003</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4690767.7319999998</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>755971</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7498641.3420000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4692853.2960000001</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7498638.8059999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4692826.966</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1155</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="15">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>7498638.8059999999</v>
+      </c>
+      <c r="U5" s="3">
+        <v>4692826.966</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1280.9845</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="3">
+        <v>755970</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7498640.6519999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4692832.5559999999</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7498641.0460000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4692844.4040000001</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="5">
+        <f>P3+P4+P5</f>
+        <v>3310</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="15">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>7498641.0460000001</v>
+      </c>
+      <c r="U6" s="3">
+        <v>4692844.4040000001</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1280.1076</v>
+      </c>
+      <c r="W6" s="3">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="3">
+        <v>755969</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7498635.5209999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4692817.017</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7498591.5920000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4692857.2929999996</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="15">
+        <v>4</v>
+      </c>
+      <c r="T7" s="3">
+        <v>7498591.5920000002</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4692857.2929999996</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1266.2735</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="3">
+        <v>755968</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7498639.625</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4692809.1359999999</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>755968</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7498639.625</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4692809.1359999999</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="3">
+        <v>756626</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7498565.2819999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4692828.5130000003</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>755969</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7498635.5209999997</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4692817.017</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="3">
+        <v>756627</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7498599.7510000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4692866.2170000002</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1">
+        <v>755970</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7498640.6519999998</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4692832.5559999999</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="3">
+        <v>756623</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7498596.9730000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4692869.1069999998</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="1">
+        <v>755971</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7498641.3420000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4692853.2960000001</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1">
+        <v>755972</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7498621.483</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4692889.7960000001</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="F13" s="9"/>
+      <c r="G13" s="1">
+        <v>755973</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7498596.9730000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4692869.1069999998</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="F14" s="9"/>
+      <c r="G14" s="1">
+        <v>756626</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7498565.2819999997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4692828.5130000003</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="F15" s="9"/>
+      <c r="G15" s="1">
+        <v>756627</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="21">
+        <v>43879.541064814817</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7498599.7510000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4692866.2170000002</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="F16" s="9"/>
+      <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="16">
-        <v>43813.618819444448</v>
-      </c>
-      <c r="J5" s="4">
-        <v>7498759.6101000002</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4690711.5272000004</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1228.5132000000001</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2.53E-2</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="6">
-        <f>P3+P4</f>
-        <v>6031</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="4">
-        <v>752839</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7498734.3130000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4690762.1979999999</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="16">
-        <v>43813.606041666666</v>
-      </c>
-      <c r="J6" s="4">
-        <v>7498766.1602999996</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4690735.6596999997</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1222.519</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="I16" s="21">
+        <v>43879.554016203707</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7498578.2942000004</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4692842.7445999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1264.7361000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="21">
+        <v>43879.558449074073</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7498638.7955</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4692826.9779000003</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1280.9845</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="21">
+        <v>43879.560763888891</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7498641.0563000003</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4692844.4097999996</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1280.1076</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="21">
+        <v>43879.567476851851</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7498591.5917999996</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4692857.2927000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1266.2735</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13">
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="21">
+        <v>43879.556712962964</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7498639.6149000004</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4692809.1254000003</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1281.9049</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="G21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="21">
+        <v>43879.557673611111</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7498635.5195000004</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4692817.0191000002</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1280.2152000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="F22" s="9"/>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="21">
+        <v>43879.559733796297</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7498640.6522000004</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4692832.5552000003</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1281.425</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="21">
+        <v>43879.562407407408</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7498641.3583000004</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4692853.3037</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1279.9952000000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13">
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="21">
+        <v>43879.564039351855</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7498621.4647000004</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4692889.7803999996</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1278.3239000000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13">
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="21">
+        <v>43879.564803240741</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7498596.9753999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4692869.1135</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1268.7981</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13">
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43879.555</v>
+      </c>
+      <c r="J26" s="1">
+        <v>7498565.2702000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4692828.5338000003</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1263.4528</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13">
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="21">
+        <v>43879.565266203703</v>
+      </c>
+      <c r="J27" s="1">
+        <v>7498599.7434</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4692866.2284000004</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1268.6639</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13">
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="21">
+        <v>43879.568171296298</v>
+      </c>
+      <c r="J28" s="1">
+        <v>7498616.3190000001</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4692850.8485000003</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="21">
+        <v>43879.568402777775</v>
+      </c>
+      <c r="J29" s="1">
+        <v>7498608.5535000004</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4692834.8600000003</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13">
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="21">
+        <v>43879.552048611113</v>
+      </c>
+      <c r="J30" s="1">
+        <v>7498577.8229999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4692839.2363</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1261.1509000000001</v>
+      </c>
+      <c r="M30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="4">
-        <v>752840</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7498733.5159999998</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4690750.443</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="16">
-        <v>43813.610150462962</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7498777.6323999995</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4690726.5636999998</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1218.8729000000001</v>
-      </c>
-      <c r="M7" s="4">
+    <row r="31" spans="6:13">
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="21">
+        <v>43879.562037037038</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7498641.3572000004</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4692853.3088999996</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1279.9339</v>
+      </c>
+      <c r="M31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="4">
-        <v>752907</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7498823.1919999998</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4690592.017</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="4">
-        <v>752928</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7498738.3260000004</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4690749.1739999996</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="B10" s="4">
-        <v>752929</v>
-      </c>
-      <c r="C10" s="4">
-        <v>7498744.3760000002</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4690743.5619999999</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:24">
-      <c r="B11" s="4">
-        <v>752930</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7498750.625</v>
-      </c>
-      <c r="D11" s="4">
-        <v>4690731.0980000002</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:24">
-      <c r="B12" s="4">
-        <v>752931</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7498752.6749999998</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4690725.4620000003</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="4">
-        <v>752932</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7498759.6150000002</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4690711.5120000001</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="B14" s="4">
-        <v>752933</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7498767.0410000002</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4690701.2050000001</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:24">
-      <c r="B15" s="4">
-        <v>752934</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7498774.4519999996</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4690694.2479999997</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="B16" s="4">
-        <v>752935</v>
-      </c>
-      <c r="C16" s="4">
-        <v>7498778.75</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4690689.4409999996</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="4">
-        <v>752936</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7498784.2759999996</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4690685.2060000002</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="4">
-        <v>752937</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7498791.4610000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4690679.1689999998</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="4">
-        <v>752938</v>
-      </c>
-      <c r="C19" s="4">
-        <v>7498796.0760000004</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4690671.1189999999</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="4">
-        <v>752939</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7498800.5880000005</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4690661.9979999997</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4">
-        <v>752940</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7498805.3339999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4690652.9850000003</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="4">
-        <v>752941</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7498809.4239999996</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4690644.8669999996</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="4">
-        <v>752942</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7498817.6689999998</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4690629.9419999998</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="4">
-        <v>752943</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7498822.6799999997</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4690622.1009999998</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="4">
-        <v>752944</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7498826.1600000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4690612.5690000001</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="4">
-        <v>752945</v>
-      </c>
-      <c r="C26" s="4">
-        <v>7498825.2599999998</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4690602.1210000003</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="4">
-        <v>752946</v>
-      </c>
-      <c r="C27" s="4">
-        <v>7498833.5930000003</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4690596.6009999998</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="4">
-        <v>752947</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7498757.0599999996</v>
-      </c>
-      <c r="D28" s="4">
-        <v>4690755.17</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="4">
-        <v>752948</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7498762.7599999998</v>
-      </c>
-      <c r="D29" s="4">
-        <v>4690746.5379999997</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="4">
-        <v>752949</v>
-      </c>
-      <c r="C30" s="4">
-        <v>7498773.3329999996</v>
-      </c>
-      <c r="D30" s="4">
-        <v>4690738.8250000002</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="4">
-        <v>752950</v>
-      </c>
-      <c r="C31" s="4">
-        <v>7498786.1940000001</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4690731.91</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="4">
-        <v>752951</v>
-      </c>
-      <c r="C32" s="4">
-        <v>7498795.818</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4690719.8190000001</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="4">
-        <v>752952</v>
-      </c>
-      <c r="C33" s="4">
-        <v>7498810.7379999999</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4690700.25</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="4">
-        <v>752953</v>
-      </c>
-      <c r="C34" s="4">
-        <v>7498819.0429999996</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4690697.534</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="4">
-        <v>752954</v>
-      </c>
-      <c r="C35" s="4">
-        <v>7498839.8799999999</v>
-      </c>
-      <c r="D35" s="4">
-        <v>4690664.9119999995</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="4">
-        <v>752955</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7498849.5580000002</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4690647.8559999997</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="4">
-        <v>752956</v>
-      </c>
-      <c r="C37" s="4">
-        <v>7498855.2010000004</v>
-      </c>
-      <c r="D37" s="4">
-        <v>4690628.4239999996</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="4">
-        <v>752957</v>
-      </c>
-      <c r="C38" s="4">
-        <v>7498858.9340000004</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4690609.4029999999</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="4">
-        <v>758687</v>
-      </c>
-      <c r="C39" s="4">
-        <v>7498817.5460000001</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4690630.165</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="4">
-        <v>758688</v>
-      </c>
-      <c r="C40" s="4">
-        <v>7498807.9970000004</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4690647.699</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="4">
-        <v>758689</v>
-      </c>
-      <c r="C41" s="4">
-        <v>7498783.3080000002</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4690685.9469999997</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="N42" s="17"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="F44" s="19"/>
+    <row r="32" spans="6:13">
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="21">
+        <v>43879.562349537038</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7498641.3357999995</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4692853.3691999996</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1280.0718999999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="M35" s="10"/>
+    </row>
+    <row r="42" spans="6:14">
+      <c r="F42" s="12"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="6:14">
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="F44" s="12"/>
     </row>
     <row r="66" spans="14:14">
-      <c r="N66" s="18"/>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="14:14">
-      <c r="N67" s="18"/>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" spans="14:14">
-      <c r="N68" s="18"/>
+      <c r="N68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
